--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="220">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -438,14 +438,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:32:00Z</t>
+    <t xml:space="preserve">2023-06-01T10:37:00Z</t>
   </si>
   <si>
     <t xml:space="preserve">Type: https://govway.org/handling-errors/401/TokenAuthenticationFailed.html
 Status: 401
 Title: TokenAuthenticationFailed
 Detail: Invalid token
-Govway_id: a152168f-ffb8-11ed-80ae-005056ae7395</t>
+Govway_id: 31a279cb-004c-11ee-8882-005056ae54fa</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -504,7 +504,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:33:00Z</t>
+    <t xml:space="preserve">2023-06-01T10:44:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc19369b88f8e98a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/jwt-validation
@@ -521,6 +527,9 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-06-01T10:47:00Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viene visualizzato un messaggio a video di non disponibilità del servizio e il programma si chiude.</t>
   </si>
   <si>
@@ -531,7 +540,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:04:00Z</t>
+    <t xml:space="preserve">2023-06-01T10:51:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ed6310a8929b53d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.3faad734ad38f663a8c2200e5a0de16b7e992b7687007cdf4089155b5e5be0a6.7f7402db21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/syntax
@@ -548,7 +563,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:12:00Z</t>
+    <t xml:space="preserve">2023-06-01T10:55:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0f981631eafa914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c752b109d735b55caf17177fd19d759a392f31f3aa387b44ebf86e05e4a38751.67547d094c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -565,7 +586,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:13:00Z</t>
+    <t xml:space="preserve">2023-06-01T10:58:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee7fa4484f178dc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ee00b86ec681cbe93c0f016f4c144b1fe92ce3982574d071325d37e2aafa2eb3.74921dadc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -582,7 +609,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:14:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd7b895bd2f17cf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.b494c632c8468c09734ca6026c024f6757e5abfc69366b1278e6d58faa712b5f.ac16f802ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -599,7 +632,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:15:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:01:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3941e1675d693db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.fbd3e1e7e5b134fbd230cf2ce24cfebd89729640588f44dfc630521dc9587bba.cfe1719606^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -616,7 +655,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:16:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:02:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ab68923370c6155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.fbd3e1e7e5b134fbd230cf2ce24cfebd89729640588f44dfc630521dc9587bba.bb77955d79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/vocabulary
@@ -633,7 +678,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:17:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:04:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ef4c130ff8fa5fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.966d29766e8c86e3dfc4c0aea302ea15022de7b68d8c76732c8b820250909b5e.b83cccbfe0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -650,6 +701,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-06-01T11:06:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c985468a8f92de2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.b6e478629ad92d0e0a40a93402ddfa0db8b0f7a019583cee8c8d79fed282e32e.ef347911e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type: /msg/syntax
 Status: 400
 Title: Errore di sintassi.
@@ -664,7 +724,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:18:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:07:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011613bd9fca178e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.2c2aa9b9099eacba8de5d2fc7895752af6a7bda026b5cb06ac1620cecf0cd2ec.4a66a2886b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -702,7 +768,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:20:00Z</t>
+    <t xml:space="preserve">2023-06-01T11:08:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39f0e02e38d4d4ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.a8ddfdd6cdfcc9613b61d5e86f41bb86d835e16c0fd3f23131ee73357c5f30ed.d41bd79c7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -719,7 +791,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T16:21:00Z</t>
+    <t xml:space="preserve">eb9022a4ac859ae1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c349c44450379d0388c09e84a9fafcd0cec6a85bc4fcb38463c2e1640c5f3861.fc9c8284b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Type: /msg/semantic
@@ -1604,11 +1679,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P17" activeCellId="0" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1616,9 +1691,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.12"/>
@@ -2103,7 +2181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="117.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
         <v>28</v>
       </c>
@@ -2120,7 +2198,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>80</v>
@@ -2149,7 +2227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
         <v>36</v>
       </c>
@@ -2166,13 +2244,17 @@
         <v>84</v>
       </c>
       <c r="F16" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="29" t="s">
         <v>55</v>
       </c>
@@ -2184,7 +2266,7 @@
         <v>55</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -2195,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="90.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
         <v>44</v>
       </c>
@@ -2206,13 +2288,17 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="F17" s="27" t="n">
+        <v>45078</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
@@ -2222,7 +2308,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2231,7 +2317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
         <v>52</v>
       </c>
@@ -2242,19 +2328,23 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+        <v>95</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
       </c>
@@ -2266,7 +2356,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -2277,7 +2367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
         <v>53</v>
       </c>
@@ -2288,19 +2378,23 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2406,7 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -2323,7 +2417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
         <v>54</v>
       </c>
@@ -2334,19 +2428,23 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F20" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
       </c>
@@ -2358,7 +2456,7 @@
         <v>55</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -2369,7 +2467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>55</v>
       </c>
@@ -2380,19 +2478,23 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F21" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+        <v>113</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
       </c>
@@ -2404,7 +2506,7 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -2415,7 +2517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>56</v>
       </c>
@@ -2426,19 +2528,23 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F22" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
       </c>
@@ -2450,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
@@ -2461,7 +2567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
         <v>57</v>
       </c>
@@ -2472,19 +2578,23 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F23" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
       </c>
@@ -2496,7 +2606,7 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
@@ -2507,7 +2617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
         <v>58</v>
       </c>
@@ -2518,19 +2628,23 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F24" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
       </c>
@@ -2542,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
@@ -2553,7 +2667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
         <v>59</v>
       </c>
@@ -2564,19 +2678,23 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F25" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2706,7 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
@@ -2599,7 +2717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
         <v>60</v>
       </c>
@@ -2610,19 +2728,23 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F26" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>145</v>
+      </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
       </c>
@@ -2634,7 +2756,7 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
@@ -2645,7 +2767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
         <v>61</v>
       </c>
@@ -2656,19 +2778,23 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F27" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+        <v>149</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>151</v>
+      </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +2806,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
@@ -2691,7 +2817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
         <v>62</v>
       </c>
@@ -2702,19 +2828,23 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F28" s="27" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+        <v>149</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
       </c>
@@ -2726,7 +2856,7 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
@@ -2748,10 +2878,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2761,7 +2891,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11701,10 +11831,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11712,125 +11842,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11838,111 +11968,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11950,111 +12080,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12062,111 +12192,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12174,7 +12304,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -12185,10 +12315,10 @@
     </row>
     <row r="36" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -12199,10 +12329,10 @@
     </row>
     <row r="37" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -12213,10 +12343,10 @@
     </row>
     <row r="38" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -12227,10 +12357,10 @@
     </row>
     <row r="39" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -12241,10 +12371,10 @@
     </row>
     <row r="40" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -12255,10 +12385,10 @@
     </row>
     <row r="41" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -12269,10 +12399,10 @@
     </row>
     <row r="42" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -12286,7 +12416,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -12297,10 +12427,10 @@
     </row>
     <row r="44" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -12311,10 +12441,10 @@
     </row>
     <row r="45" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -12325,10 +12455,10 @@
     </row>
     <row r="46" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -12339,10 +12469,10 @@
     </row>
     <row r="47" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -12353,10 +12483,10 @@
     </row>
     <row r="48" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -12367,10 +12497,10 @@
     </row>
     <row r="49" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -12381,10 +12511,10 @@
     </row>
     <row r="50" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -12433,7 +12563,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -12441,7 +12571,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="226">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -441,11 +441,20 @@
     <t xml:space="preserve">2023-06-01T10:37:00Z</t>
   </si>
   <si>
+    <t xml:space="preserve">UNKNOWN_TRACEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type: https://govway.org/handling-errors/401/TokenAuthenticationFailed.html
 Status: 401
 Title: TokenAuthenticationFailed
 Detail: Invalid token
 Govway_id: 31a279cb-004c-11ee-8882-005056ae54fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -510,9 +519,6 @@
     <t xml:space="preserve">dc19369b88f8e98a</t>
   </si>
   <si>
-    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type: /msg/jwt-validation
 Status: 403
 Title: Campo token JWT non valido.
@@ -556,6 +562,9 @@
 Govway_id:</t>
   </si>
   <si>
+    <t xml:space="preserve">Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT7_KO</t>
   </si>
   <si>
@@ -579,6 +588,9 @@
 Govway_id: </t>
   </si>
   <si>
+    <t xml:space="preserve">Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT8_KO</t>
   </si>
   <si>
@@ -609,20 +621,23 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-01T11:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd7b895bd2f17cf5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.b494c632c8468c09734ca6026c024f6757e5abfc69366b1278e6d58faa712b5f.ac16f802ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type: /msg/semantic
-Status: 422
-Title: Errore semantico.
-Detail: [ERRORE-19| L'elemento ClinicalDocument/recordTarget/patientRole/patient/birthplace DEVE contenere un elemento place/addr ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
+    <t xml:space="preserve">2023-06-06T15:57:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eec19d0270158bce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.b494c632c8468c09734ca6026c024f6757e5abfc69366b1278e6d58faa712b5f.c9ac576f10^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type: /msg/syntax
+Status: 400
+Title: Errore di sintassi.
+Detail: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'addr'. One of '{"urn:hl7-org:v3":languageCommunication}' is expected.
 Govway_id: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La presenza di tutti i campi indispensabili viene effettuata prima di procedere con la validazione. In caso di errore il programma mostra un messaggio a video con le specifiche dell’errore.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT10_KO</t>
@@ -759,6 +774,9 @@
 						18716-1 ALLERGOLOGIA
 						26439-0 PATOLOGIA CHIRURGICA],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
 Govway_id: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore. </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -1679,11 +1697,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,7 +1710,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.17"/>
@@ -2181,7 +2199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="195.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
         <v>28</v>
       </c>
@@ -2203,8 +2221,12 @@
       <c r="G15" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="J15" s="29" t="s">
         <v>55</v>
       </c>
@@ -2216,18 +2238,22 @@
         <v>55</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="165.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
         <v>36</v>
       </c>
@@ -2238,22 +2264,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>55</v>
@@ -2266,15 +2292,19 @@
         <v>55</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2288,16 +2318,16 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -2308,16 +2338,16 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="129.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
         <v>52</v>
       </c>
@@ -2328,22 +2358,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -2356,18 +2386,22 @@
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+        <v>100</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
         <v>53</v>
       </c>
@@ -2378,22 +2412,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -2406,18 +2440,22 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+        <v>107</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
         <v>54</v>
       </c>
@@ -2428,22 +2466,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -2456,18 +2494,22 @@
         <v>55</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="152.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>55</v>
       </c>
@@ -2478,22 +2520,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F21" s="27" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -2506,18 +2548,22 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>56</v>
       </c>
@@ -2528,22 +2574,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -2556,18 +2602,22 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
         <v>57</v>
       </c>
@@ -2578,22 +2628,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -2606,18 +2656,22 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
         <v>58</v>
       </c>
@@ -2628,22 +2682,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -2656,18 +2710,22 @@
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
         <v>59</v>
       </c>
@@ -2678,22 +2736,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -2706,18 +2764,22 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
         <v>60</v>
       </c>
@@ -2728,22 +2790,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -2756,18 +2818,22 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+        <v>151</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>152</v>
+      </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
         <v>61</v>
       </c>
@@ -2778,22 +2844,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -2806,18 +2872,22 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
         <v>62</v>
       </c>
@@ -2828,22 +2898,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
@@ -2856,18 +2926,22 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>152</v>
+      </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="143.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
         <v>191</v>
       </c>
@@ -2878,10 +2952,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2891,7 +2965,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11831,10 +11905,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11842,125 +11916,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="C4" s="35" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11968,111 +12042,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12080,111 +12154,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12192,111 +12266,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12304,7 +12378,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -12315,10 +12389,10 @@
     </row>
     <row r="36" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -12329,10 +12403,10 @@
     </row>
     <row r="37" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -12343,10 +12417,10 @@
     </row>
     <row r="38" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -12357,10 +12431,10 @@
     </row>
     <row r="39" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -12371,10 +12445,10 @@
     </row>
     <row r="40" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -12385,10 +12459,10 @@
     </row>
     <row r="41" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -12399,10 +12473,10 @@
     </row>
     <row r="42" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -12416,7 +12490,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -12427,10 +12501,10 @@
     </row>
     <row r="44" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -12441,10 +12515,10 @@
     </row>
     <row r="45" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -12455,10 +12529,10 @@
     </row>
     <row r="46" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -12469,10 +12543,10 @@
     </row>
     <row r="47" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -12483,10 +12557,10 @@
     </row>
     <row r="48" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -12497,10 +12571,10 @@
     </row>
     <row r="49" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -12511,10 +12585,10 @@
     </row>
     <row r="50" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -12563,7 +12637,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -12571,7 +12645,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -340,13 +340,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T15:57:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53bad53928b6fb7f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ef631c0f30916bda71f84a283e2542b8a102d8e5aaac3d25b273625a935c26b1.e2921a2590^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-08T10:02:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e156d0450c6474c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ef631c0f30916bda71f84a283e2542b8a102d8e5aaac3d25b273625a935c26b1.94534d68f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -358,13 +358,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T15:58:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6d3e88987da84ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f1282ade5a7047ebebf51cd543ea0f3ff2b0fa68e9962bee4a3678b3ad75abdc.96b0f4d83b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-08T10:45:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4eda81d53aa49b48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f1282ade5a7047ebebf51cd543ea0f3ff2b0fa68e9962bee4a3678b3ad75abdc.a952ff5ccc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -441,17 +441,17 @@
     <t xml:space="preserve">2023-06-01T10:37:00Z</t>
   </si>
   <si>
-    <t xml:space="preserve">UNKNOWN_TRACEID</t>
+    <t xml:space="preserve">eb4e249d6def4753</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Type: https://govway.org/handling-errors/401/TokenAuthenticationFailed.html
-Status: 401
-Title: TokenAuthenticationFailed
-Detail: Invalid token
-Govway_id: 31a279cb-004c-11ee-8882-005056ae54fa</t>
+    <t xml:space="preserve">Type: /msg/jwt-validation
+Status: 403
+Title: Campo token JWT non valido.
+Detail: Il campo purpose_of_use non è valorizzato
+Govway_id:</t>
   </si>
   <si>
     <t xml:space="preserve">Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
@@ -519,11 +519,7 @@
     <t xml:space="preserve">dc19369b88f8e98a</t>
   </si>
   <si>
-    <t xml:space="preserve">Type: /msg/jwt-validation
-Status: 403
-Title: Campo token JWT non valido.
-Detail: Il campo action_id non è corretto
-Govway_id: </t>
+    <t xml:space="preserve">Status: 403</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
@@ -536,6 +532,9 @@
     <t xml:space="preserve">2023-06-01T10:47:00Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Title: Campo token JWT non valido.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viene visualizzato un messaggio a video di non disponibilità del servizio e il programma si chiude.</t>
   </si>
   <si>
@@ -555,11 +554,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.3faad734ad38f663a8c2200e5a0de16b7e992b7687007cdf4089155b5e5be0a6.7f7402db21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Type: /msg/syntax
-Status: 400
-Title: Errore di sintassi.
-Detail: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{"urn:hl7-org:v3":confidentialityCode}' is expected.
-Govway_id:</t>
+    <t xml:space="preserve">Detail: Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
     <t xml:space="preserve">Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
@@ -581,11 +576,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c752b109d735b55caf17177fd19d759a392f31f3aa387b44ebf86e05e4a38751.67547d094c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Type: /msg/semantic
-Status: 422
-Title: Errore semantico.
-Detail: [ERRORE-46| codice fiscale 'prvpnt87b55h703d' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
-Govway_id: </t>
+    <t xml:space="preserve">Govway_id: </t>
   </si>
   <si>
     <t xml:space="preserve">Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio.</t>
@@ -1697,11 +1688,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2055,7 +2046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="108.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
         <v>3</v>
       </c>
@@ -2103,7 +2094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="115.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
         <v>4</v>
       </c>
@@ -2335,10 +2326,12 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2358,22 +2351,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -2386,13 +2379,13 @@
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
@@ -2412,22 +2405,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -2440,13 +2433,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
@@ -2466,22 +2459,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -2494,13 +2487,13 @@
         <v>55</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
@@ -2520,22 +2513,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45083</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -2548,13 +2541,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
@@ -2574,22 +2567,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -2602,13 +2595,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
@@ -2628,22 +2621,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -2656,13 +2649,13 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
@@ -2682,22 +2675,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -2710,13 +2703,13 @@
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
@@ -2736,22 +2729,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -2764,13 +2757,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
@@ -2790,22 +2783,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -2818,13 +2811,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
@@ -2844,22 +2837,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -2872,13 +2865,13 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
@@ -2898,22 +2891,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
@@ -2926,13 +2919,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
@@ -2952,10 +2945,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2965,7 +2958,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11905,10 +11898,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11916,125 +11909,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12042,111 +12035,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12154,111 +12147,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12266,111 +12259,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12378,7 +12371,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -12389,10 +12382,10 @@
     </row>
     <row r="36" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -12403,10 +12396,10 @@
     </row>
     <row r="37" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -12417,10 +12410,10 @@
     </row>
     <row r="38" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -12431,10 +12424,10 @@
     </row>
     <row r="39" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -12445,10 +12438,10 @@
     </row>
     <row r="40" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -12459,10 +12452,10 @@
     </row>
     <row r="41" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -12473,10 +12466,10 @@
     </row>
     <row r="42" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -12490,7 +12483,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -12501,10 +12494,10 @@
     </row>
     <row r="44" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -12515,10 +12508,10 @@
     </row>
     <row r="45" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -12529,10 +12522,10 @@
     </row>
     <row r="46" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -12543,10 +12536,10 @@
     </row>
     <row r="47" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -12557,10 +12550,10 @@
     </row>
     <row r="48" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -12571,10 +12564,10 @@
     </row>
     <row r="49" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -12585,10 +12578,10 @@
     </row>
     <row r="50" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -12637,7 +12630,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -12645,7 +12638,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="228">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T15:39:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9ed1f788942b1b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1c9f52d8ca183466119877f4e948f11ec5368e28f37e993d44cebc496036a6ab.5909619390^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-0-09T15:53:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a5657ed48223d73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9b54b9464fc41b470fff32e022edc77e0b390a229b5319a2bc772bf0cc000751.0759140d01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -322,13 +322,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T15:54:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">526ee6ebc2070699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.7daa4850aca5b7b52cab22076b573e9ce5eb24116ac342514aea2f4c98ec6406.083f9a4c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-0-09T16:10:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4ca0ce8073fb37c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c06c742299d08282c08e3f24953aadae4e1c4dcc3e7d04bfc56247ee043fb47f.e9ec22c54a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -340,13 +340,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-08T10:02:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e156d0450c6474c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ef631c0f30916bda71f84a283e2542b8a102d8e5aaac3d25b273625a935c26b1.94534d68f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-0-09T15:55:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1f9c7c85a95f712e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ef631c0f30916bda71f84a283e2542b8a102d8e5aaac3d25b273625a935c26b1.84b19205e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -454,7 +454,7 @@
 Govway_id:</t>
   </si>
   <si>
-    <t xml:space="preserve">Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
+    <t xml:space="preserve">Si riceve l’errore di tipo bloccante e si procede in backoffice alla risoluzione dello stesso</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t xml:space="preserve">Status: 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
@@ -1688,11 +1691,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1967,7 +1970,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>52</v>
@@ -2015,7 +2018,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="27" t="n">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>60</v>
@@ -2063,7 +2066,7 @@
         <v>64</v>
       </c>
       <c r="F12" s="27" t="n">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>65</v>
@@ -2289,7 +2292,7 @@
         <v>55</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
@@ -2309,16 +2312,16 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -2327,11 +2330,11 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2351,22 +2354,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -2379,13 +2382,13 @@
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
@@ -2405,22 +2408,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -2433,13 +2436,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
@@ -2459,22 +2462,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -2487,13 +2490,13 @@
         <v>55</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
@@ -2513,22 +2516,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45083</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -2541,13 +2544,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
@@ -2567,22 +2570,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -2595,13 +2598,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
@@ -2621,22 +2624,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -2649,13 +2652,13 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
@@ -2675,22 +2678,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -2703,13 +2706,13 @@
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
@@ -2729,22 +2732,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -2757,13 +2760,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
@@ -2783,22 +2786,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -2811,13 +2814,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
@@ -2837,22 +2840,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -2865,13 +2868,13 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
@@ -2891,22 +2894,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
@@ -2919,13 +2922,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
@@ -2945,10 +2948,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2958,7 +2961,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11898,10 +11901,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11909,125 +11912,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12035,111 +12038,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12147,111 +12150,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12259,111 +12262,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12371,7 +12374,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -12382,10 +12385,10 @@
     </row>
     <row r="36" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -12396,10 +12399,10 @@
     </row>
     <row r="37" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -12410,10 +12413,10 @@
     </row>
     <row r="38" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="39" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -12438,10 +12441,10 @@
     </row>
     <row r="40" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -12452,10 +12455,10 @@
     </row>
     <row r="41" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -12466,10 +12469,10 @@
     </row>
     <row r="42" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -12483,7 +12486,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -12494,10 +12497,10 @@
     </row>
     <row r="44" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -12508,10 +12511,10 @@
     </row>
     <row r="45" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -12522,10 +12525,10 @@
     </row>
     <row r="46" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -12536,10 +12539,10 @@
     </row>
     <row r="47" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -12550,10 +12553,10 @@
     </row>
     <row r="48" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -12564,10 +12567,10 @@
     </row>
     <row r="49" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -12578,10 +12581,10 @@
     </row>
     <row r="50" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -12638,7 +12641,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -358,13 +358,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-08T10:45:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4eda81d53aa49b48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f1282ade5a7047ebebf51cd543ea0f3ff2b0fa68e9962bee4a3678b3ad75abdc.a952ff5ccc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-12T17:01:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6c895678cad1575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.5577a2bf31706db15955087ee43aeaea44f0db53d4c3fb54c7bc34c32daca2fb.523799e503^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -376,13 +376,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-31T15:59:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a07dc85b7f3c3f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.a748a4990661aa504b507735ec6ece09dc3cb0c828621ecfa0064262b7fb3cc0.25be95c8d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-12T17:03:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b47011813bb42d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c202c1d0b17e047a4ce0d194c7164dee347fdc498e2262a7d65e224a4ad738d0.32cea383d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -1691,11 +1691,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="P15" activeCellId="0" sqref="P15"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2114,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="27" t="n">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>70</v>
@@ -2162,7 +2162,7 @@
         <v>74</v>
       </c>
       <c r="F14" s="27" t="n">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>75</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-0-09T15:53:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a5657ed48223d73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9b54b9464fc41b470fff32e022edc77e0b390a229b5319a2bc772bf0cc000751.0759140d01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-15T15:34:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22e84ccf685225ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.5b2df7b09c5c56bcd88e0ca6e867264343fb425d9b7a211199fb392489a35eb4.e3d31b3bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -322,13 +322,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-0-09T16:10:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4ca0ce8073fb37c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c06c742299d08282c08e3f24953aadae4e1c4dcc3e7d04bfc56247ee043fb47f.e9ec22c54a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-15T15:35:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f134f2f20f4214e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.0acb3bdfff253b7314f0335f5d73513892aa5b564956f41a4b71e7f343694035.b9dc3b6d00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -340,13 +340,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-0-09T15:55:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1f9c7c85a95f712e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ef631c0f30916bda71f84a283e2542b8a102d8e5aaac3d25b273625a935c26b1.84b19205e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-15T16:23:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a278b884c22e213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.6f17803fc6eb58ad7f2c90f0eb19fd0f75398c6bba484bdcbae5c09377d2245e.de37f920de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -358,13 +358,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-12T17:01:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6c895678cad1575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.5577a2bf31706db15955087ee43aeaea44f0db53d4c3fb54c7bc34c32daca2fb.523799e503^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-15T16:24:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5903e07b0939326c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.52e7d71bc224a606a43efb14c767d1d30887defad92099ab98959af26eb0b699.082b577fd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -376,13 +376,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-12T17:03:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b47011813bb42d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c202c1d0b17e047a4ce0d194c7164dee347fdc498e2262a7d65e224a4ad738d0.32cea383d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-15T16:26:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81a5534f2c463c75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.85d67ec3969d10e032a0621a17b2061ebf3516e6acc46c91dae98c4bfd1c7feb.7109de1b0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -1691,10 +1691,10 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
       <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +1970,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>52</v>
@@ -2018,7 +2018,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="27" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>60</v>
@@ -2066,7 +2066,7 @@
         <v>64</v>
       </c>
       <c r="F12" s="27" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>65</v>
@@ -2114,7 +2114,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="27" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>70</v>
@@ -2162,7 +2162,7 @@
         <v>74</v>
       </c>
       <c r="F14" s="27" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>75</v>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="230">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -454,7 +454,7 @@
 Govway_id:</t>
   </si>
   <si>
-    <t xml:space="preserve">Si riceve l’errore di tipo bloccante e si procede in backoffice alla risoluzione dello stesso</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto il medico operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -522,9 +522,6 @@
     <t xml:space="preserve">Status: 403</t>
   </si>
   <si>
-    <t xml:space="preserve">Il controllo sulla generazione del file data.json viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -538,7 +535,7 @@
     <t xml:space="preserve">Title: Campo token JWT non valido.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene visualizzato un messaggio a video di non disponibilità del servizio e il programma si chiude.</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore ricevuto dal servizio di validazione. L’operazione di retry viene eseguita manualmente dall’operatore.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -560,7 +557,7 @@
     <t xml:space="preserve">Detail: Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
-    <t xml:space="preserve">Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto il medico operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT7_KO</t>
@@ -579,10 +576,10 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c752b109d735b55caf17177fd19d759a392f31f3aa387b44ebf86e05e4a38751.67547d094c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Govway_id: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio.</t>
+    <t xml:space="preserve">Viene restituito un report con il messaggio di errore ricevuto dal servizio di validazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato attraverso un messaggio e si può procedere con la correzione del codice fiscale. L’operazione di retry viene eseguita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT8_KO</t>
@@ -599,13 +596,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ee00b86ec681cbe93c0f016f4c144b1fe92ce3982574d071325d37e2aafa2eb3.74921dadc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type: /msg/semantic
-Status: 422
-Title: Errore semantico.
-Detail: [ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
-Govway_id: </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT9_KO</t>
@@ -631,7 +621,7 @@
 Govway_id: </t>
   </si>
   <si>
-    <t xml:space="preserve">La presenza di tutti i campi indispensabili viene effettuata prima di procedere con la validazione. In caso di errore il programma mostra un messaggio a video con le specifiche dell’errore.</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto si procede con l’inserimento del comune. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT10_KO</t>
@@ -657,6 +647,9 @@
 Govway_id: </t>
   </si>
   <si>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto si procede con l’inserimento del nome del paziente. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT11_KO</t>
   </si>
   <si>
@@ -680,6 +673,9 @@
 Govway_id: </t>
   </si>
   <si>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto si procede con l’inserimento del genere. L’operazione di retry viene gestita manualmentedall’operatore in back office.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT12_KO</t>
   </si>
   <si>
@@ -701,6 +697,9 @@
 Title: Errore semantico.
 Detail: [ERRORE-41| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
 Govway_id: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT13_KO</t>
@@ -770,7 +769,7 @@
 Govway_id: </t>
   </si>
   <si>
-    <t xml:space="preserve">Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore. </t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. Si procede quindi alla correzione del codice errato associato all’analisi. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -815,6 +814,27 @@
 Detail: [ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.
 			],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
 Govway_id: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
@@ -1015,7 +1035,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-410]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1085,6 +1105,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1219,7 +1245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1354,6 +1380,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1691,11 +1721,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="L25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2291,8 +2321,8 @@
       <c r="O16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="29" t="s">
-        <v>91</v>
+      <c r="P16" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
@@ -2301,7 +2331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="121.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
         <v>44</v>
       </c>
@@ -2312,16 +2342,16 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -2330,11 +2360,13 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="34" t="s">
         <v>95</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2343,7 +2375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="129.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="117.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
         <v>52</v>
       </c>
@@ -2354,22 +2386,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="I18" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -2382,13 +2414,13 @@
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="29" t="s">
-        <v>103</v>
+      <c r="P18" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
@@ -2397,7 +2429,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="182.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
         <v>53</v>
       </c>
@@ -2408,22 +2440,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -2436,13 +2468,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
@@ -2462,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>115</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -2489,14 +2521,14 @@
       <c r="M20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="29" t="s">
-        <v>116</v>
+      <c r="N20" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="29" t="s">
-        <v>103</v>
+      <c r="P20" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
@@ -2516,22 +2548,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45083</v>
       </c>
       <c r="G21" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>121</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -2544,13 +2576,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="29" t="s">
-        <v>123</v>
+      <c r="P21" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
@@ -2559,7 +2591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>56</v>
       </c>
@@ -2570,22 +2602,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>128</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -2598,13 +2630,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>123</v>
+      <c r="P22" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
@@ -2624,22 +2656,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="I23" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -2652,13 +2684,13 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="29" t="s">
-        <v>123</v>
+      <c r="P23" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
@@ -2711,8 +2743,8 @@
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="29" t="s">
-        <v>123</v>
+      <c r="P24" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
@@ -2732,22 +2764,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -2760,13 +2792,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="29" t="s">
-        <v>123</v>
+      <c r="P25" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
@@ -2786,22 +2818,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -2814,13 +2846,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="29" t="s">
-        <v>154</v>
+      <c r="P26" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
@@ -2840,22 +2872,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -2868,13 +2900,13 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="29" t="s">
-        <v>154</v>
+      <c r="P27" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
@@ -2894,22 +2926,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
@@ -2922,13 +2954,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="29" t="s">
-        <v>154</v>
+      <c r="P28" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
@@ -2948,10 +2980,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2961,7 +2993,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11901,695 +11933,695 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="35" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="35" t="s">
+    </row>
+    <row r="3" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="37" t="s">
+    </row>
+    <row r="4" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="B4" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="35" t="s">
+    </row>
+    <row r="5" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="37" t="s">
+    </row>
+    <row r="6" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="37" t="s">
+    </row>
+    <row r="7" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="B7" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D7" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="37" t="s">
+    </row>
+    <row r="8" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="B8" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="37" t="s">
+    </row>
+    <row r="9" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="B9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="35" t="n">
+      <c r="D9" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="36" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="36" t="n">
+        <v>208</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="36" t="n">
+        <v>224</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="36" t="n">
+        <v>240</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="36" t="n">
+        <v>256</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="36" t="n">
+        <v>272</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="36" t="n">
+        <v>304</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="36" t="n">
+        <v>193</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="36" t="n">
+        <v>209</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="36" t="n">
+        <v>225</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="36" t="n">
+        <v>241</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="36" t="n">
+        <v>257</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="36" t="n">
+        <v>273</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="36" t="n">
+        <v>305</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="36" t="n">
+        <v>194</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="36" t="n">
+        <v>210</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="36" t="n">
+        <v>226</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="36" t="n">
+        <v>242</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="36" t="n">
+        <v>258</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="36" t="n">
+        <v>274</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="36" t="n">
+        <v>290</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="36" t="n">
+        <v>306</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="36" t="n">
+        <v>195</v>
+      </c>
+      <c r="D35" s="36" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="36" t="n">
+        <v>211</v>
+      </c>
+      <c r="D36" s="36" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="36" t="n">
+        <v>227</v>
+      </c>
+      <c r="D37" s="38" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="36" t="n">
+        <v>243</v>
+      </c>
+      <c r="D38" s="36" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="36" t="n">
+        <v>259</v>
+      </c>
+      <c r="D39" s="38" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="36" t="n">
+        <v>275</v>
+      </c>
+      <c r="D40" s="38" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="36" t="n">
+        <v>291</v>
+      </c>
+      <c r="D41" s="38" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="36" t="n">
+        <v>307</v>
+      </c>
+      <c r="D42" s="38" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="35" t="n">
-        <v>192</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="35" t="n">
-        <v>208</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="35" t="n">
-        <v>224</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="35" t="n">
-        <v>240</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="35" t="n">
-        <v>256</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="35" t="n">
-        <v>272</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="35" t="n">
-        <v>288</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="35" t="n">
-        <v>304</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="35" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="35" t="n">
-        <v>209</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="35" t="n">
-        <v>225</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="35" t="n">
-        <v>241</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="35" t="n">
-        <v>257</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="35" t="n">
-        <v>273</v>
-      </c>
-      <c r="D24" s="37" t="s">
+    <row r="44" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-    </row>
-    <row r="25" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="35" t="n">
-        <v>289</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="35" t="n">
-        <v>305</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="35" t="n">
+      <c r="D44" s="36" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="36" t="n">
+        <v>228</v>
+      </c>
+      <c r="D45" s="38" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="36" t="n">
+        <v>244</v>
+      </c>
+      <c r="D46" s="36" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="36" t="n">
+        <v>260</v>
+      </c>
+      <c r="D47" s="38" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="36" t="n">
+        <v>276</v>
+      </c>
+      <c r="D48" s="38" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="36" t="n">
+        <v>292</v>
+      </c>
+      <c r="D49" s="38" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="35" t="n">
-        <v>210</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="35" t="n">
-        <v>226</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="35" t="n">
-        <v>242</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="35" t="n">
-        <v>258</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="35" t="n">
-        <v>274</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="35" t="n">
-        <v>290</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="35" t="n">
-        <v>306</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="35" t="n">
-        <v>195</v>
-      </c>
-      <c r="D35" s="35" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="35" t="n">
-        <v>211</v>
-      </c>
-      <c r="D36" s="35" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="35" t="n">
+      <c r="B50" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="37" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="35" t="n">
-        <v>243</v>
-      </c>
-      <c r="D38" s="35" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="35" t="n">
-        <v>259</v>
-      </c>
-      <c r="D39" s="37" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" s="35" t="n">
-        <v>275</v>
-      </c>
-      <c r="D40" s="37" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="35" t="n">
-        <v>291</v>
-      </c>
-      <c r="D41" s="37" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="35" t="n">
-        <v>307</v>
-      </c>
-      <c r="D42" s="37" t="n">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="35" t="n">
-        <v>196</v>
-      </c>
-      <c r="D43" s="35" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C44" s="35" t="n">
-        <v>212</v>
-      </c>
-      <c r="D44" s="35" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="35" t="n">
-        <v>228</v>
-      </c>
-      <c r="D45" s="37" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="35" t="n">
-        <v>244</v>
-      </c>
-      <c r="D46" s="35" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="35" t="n">
-        <v>260</v>
-      </c>
-      <c r="D47" s="37" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="35" t="n">
-        <v>276</v>
-      </c>
-      <c r="D48" s="37" t="n">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="35" t="n">
-        <v>292</v>
-      </c>
-      <c r="D49" s="37" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" s="36" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="35" t="n">
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="38" t="n">
         <v>319</v>
       </c>
     </row>
@@ -12624,26 +12656,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>56</v>
       </c>
     </row>

--- a/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPLORACONS/EXPLORA CONSULTING SRL/VLFSE/1.40/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="228">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -454,7 +454,7 @@
 Govway_id:</t>
   </si>
   <si>
-    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto il medico operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento in back office.</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto l’operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -532,10 +532,7 @@
     <t xml:space="preserve">2023-06-01T10:47:00Z</t>
   </si>
   <si>
-    <t xml:space="preserve">Title: Campo token JWT non valido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si riceve la descrizione dell’errore ricevuto dal servizio di validazione. L’operazione di retry viene eseguita manualmente dall’operatore.</t>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -554,7 +551,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.3faad734ad38f663a8c2200e5a0de16b7e992b7687007cdf4089155b5e5be0a6.7f7402db21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Detail: Il campo purpose_of_use non è valorizzato</t>
+    <t xml:space="preserve">Viene restituito un report con il messaggio di errore ricevuto dal servizio di validazione.</t>
   </si>
   <si>
     <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto il medico operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento.</t>
@@ -576,9 +573,6 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.c752b109d735b55caf17177fd19d759a392f31f3aa387b44ebf86e05e4a38751.67547d094c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene restituito un report con il messaggio di errore ricevuto dal servizio di validazione.</t>
-  </si>
-  <si>
     <t xml:space="preserve">L’errore viene segnalato attraverso un messaggio e si può procedere con la correzione del codice fiscale. L’operazione di retry viene eseguita manualmente dall’operatore in back office.</t>
   </si>
   <si>
@@ -596,6 +590,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ee00b86ec681cbe93c0f016f4c144b1fe92ce3982574d071325d37e2aafa2eb3.74921dadc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. A questo punto il medico operatore può correggere l’errore e avviare manualmente la produzione e la validazione del documento in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT9_KO</t>
@@ -697,9 +694,6 @@
 Title: Errore semantico.
 Detail: [ERRORE-41| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]
 Govway_id: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT13_KO</t>
@@ -816,25 +810,7 @@
 Govway_id: </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">Si riceve la descrizione dell’errore nel dettaglio. L’operazione di retry viene gestita manualmente dall’operatore in back office. </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
@@ -1721,11 +1697,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="L25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="O28" activeCellId="0" sqref="O28"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,7 +2297,7 @@
       <c r="O16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="29" t="s">
         <v>84</v>
       </c>
       <c r="Q16" s="29"/>
@@ -2359,14 +2335,10 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2386,22 +2358,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="I18" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>100</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -2413,14 +2385,14 @@
       <c r="M18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="29" t="s">
-        <v>101</v>
+      <c r="N18" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="34" t="s">
-        <v>102</v>
+      <c r="P18" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
@@ -2440,22 +2412,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -2468,13 +2440,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
@@ -2494,22 +2466,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>114</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -2521,14 +2493,14 @@
       <c r="M20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="34" t="s">
-        <v>108</v>
+      <c r="N20" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="34" t="s">
-        <v>84</v>
+      <c r="P20" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
@@ -2548,22 +2520,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45083</v>
       </c>
       <c r="G21" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -2576,13 +2548,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="34" t="s">
-        <v>121</v>
+      <c r="P21" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
@@ -2602,22 +2574,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="I22" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -2630,13 +2602,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="34" t="s">
-        <v>128</v>
+      <c r="P22" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
@@ -2656,22 +2628,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="I23" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>133</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -2684,13 +2656,13 @@
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="34" t="s">
-        <v>135</v>
+      <c r="P23" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
@@ -2710,22 +2682,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G24" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="I24" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -2738,13 +2710,13 @@
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="34" t="s">
-        <v>142</v>
+      <c r="P24" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
@@ -2764,22 +2736,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G25" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>147</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -2792,13 +2764,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="34" t="s">
-        <v>142</v>
+      <c r="P25" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
@@ -2818,22 +2790,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G26" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -2846,13 +2818,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="34" t="s">
-        <v>155</v>
+      <c r="P26" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
@@ -2872,22 +2844,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G27" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -2900,13 +2872,13 @@
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="34" t="s">
-        <v>142</v>
+      <c r="P27" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
@@ -2926,22 +2898,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45078</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
@@ -2954,13 +2926,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="34" t="s">
-        <v>167</v>
+      <c r="P28" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
@@ -2980,10 +2952,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -2993,7 +2965,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -11933,10 +11905,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11944,125 +11916,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>191</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12070,111 +12042,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12182,111 +12154,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12294,111 +12266,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12406,7 +12378,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C35" s="36" t="n">
         <v>195</v>
@@ -12417,10 +12389,10 @@
     </row>
     <row r="36" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="36" t="n">
         <v>211</v>
@@ -12431,10 +12403,10 @@
     </row>
     <row r="37" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C37" s="36" t="n">
         <v>227</v>
@@ -12445,10 +12417,10 @@
     </row>
     <row r="38" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="36" t="n">
         <v>243</v>
@@ -12459,10 +12431,10 @@
     </row>
     <row r="39" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C39" s="36" t="n">
         <v>259</v>
@@ -12473,10 +12445,10 @@
     </row>
     <row r="40" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="36" t="n">
         <v>275</v>
@@ -12487,10 +12459,10 @@
     </row>
     <row r="41" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>291</v>
@@ -12501,10 +12473,10 @@
     </row>
     <row r="42" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C42" s="36" t="n">
         <v>307</v>
@@ -12518,7 +12490,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" s="36" t="n">
         <v>196</v>
@@ -12529,10 +12501,10 @@
     </row>
     <row r="44" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C44" s="36" t="n">
         <v>212</v>
@@ -12543,10 +12515,10 @@
     </row>
     <row r="45" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C45" s="36" t="n">
         <v>228</v>
@@ -12557,10 +12529,10 @@
     </row>
     <row r="46" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="36" t="n">
         <v>244</v>
@@ -12571,10 +12543,10 @@
     </row>
     <row r="47" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="36" t="n">
         <v>260</v>
@@ -12585,10 +12557,10 @@
     </row>
     <row r="48" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C48" s="36" t="n">
         <v>276</v>
@@ -12599,10 +12571,10 @@
     </row>
     <row r="49" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49" s="36" t="n">
         <v>292</v>
@@ -12613,10 +12585,10 @@
     </row>
     <row r="50" s="37" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C50" s="36" t="n">
         <v>308</v>
@@ -12665,7 +12637,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>55</v>
@@ -12673,7 +12645,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>56</v>
